--- a/Planilhas/sesi_albano.xlsx
+++ b/Planilhas/sesi_albano.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>CNPJ</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>NOTA FISCAL</t>
+  </si>
+  <si>
+    <t>E-MAILS</t>
+  </si>
+  <si>
+    <t>newrafaelcosta2000@gmail.com</t>
+  </si>
+  <si>
+    <t>rfcosta@sfiec.org.br</t>
+  </si>
+  <si>
+    <t>rssales@sfiec.org.br</t>
   </si>
 </sst>
 </file>
@@ -193,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="000000000"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +241,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -307,10 +333,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,8 +412,15 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -738,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +835,9 @@
       <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -856,7 +892,9 @@
         <v>44998</v>
       </c>
       <c r="N2" s="18"/>
-      <c r="O2" s="21"/>
+      <c r="O2" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -911,7 +949,9 @@
         <v>44998</v>
       </c>
       <c r="N3" s="18"/>
-      <c r="O3" s="21"/>
+      <c r="O3" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -966,7 +1006,9 @@
         <v>44998</v>
       </c>
       <c r="N4" s="18"/>
-      <c r="O4" s="21"/>
+      <c r="O4" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1021,7 +1063,9 @@
         <v>44998</v>
       </c>
       <c r="N5" s="18"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1076,7 +1120,9 @@
         <v>44998</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="O6" s="21"/>
+      <c r="O6" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1131,7 +1177,9 @@
         <v>44998</v>
       </c>
       <c r="N7" s="18"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1186,7 +1234,9 @@
         <v>44998</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1241,7 +1291,9 @@
         <v>44998</v>
       </c>
       <c r="N9" s="18"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1296,7 +1348,9 @@
         <v>44998</v>
       </c>
       <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
+      <c r="O10" s="27" t="s">
+        <v>49</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1351,7 +1405,9 @@
         <v>44998</v>
       </c>
       <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+      <c r="O11" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1408,7 +1464,9 @@
         <v>44998</v>
       </c>
       <c r="N12" s="18"/>
-      <c r="O12" s="21"/>
+      <c r="O12" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -1422,6 +1480,9 @@
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="O13" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D12">
@@ -1469,7 +1530,21 @@
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Planilhas/sesi_albano.xlsx
+++ b/Planilhas/sesi_albano.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>CNPJ</t>
   </si>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>020027</t>
-  </si>
-  <si>
-    <t>POLI-NUTRI ALIMENTOS S.A.</t>
-  </si>
-  <si>
-    <t>60210515000229</t>
-  </si>
-  <si>
-    <t>020028</t>
   </si>
   <si>
     <t>RAZÃO SOCIAL</t>
@@ -775,7 +766,7 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,7 +788,7 @@
     <row r="1" spans="1:28" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -827,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>9</v>
@@ -836,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -893,7 +884,7 @@
       </c>
       <c r="N2" s="18"/>
       <c r="O2" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -950,7 +941,7 @@
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -1007,7 +998,7 @@
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -1064,7 +1055,7 @@
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -1121,7 +1112,7 @@
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -1178,7 +1169,7 @@
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -1235,7 +1226,7 @@
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -1292,7 +1283,7 @@
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -1349,7 +1340,7 @@
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -1406,7 +1397,7 @@
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -1423,50 +1414,21 @@
       <c r="AB11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12">
-        <v>94</v>
-      </c>
-      <c r="E12" s="13">
-        <v>44988</v>
-      </c>
-      <c r="F12" s="14">
-        <v>33370</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" si="0"/>
-        <v>75.2</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="25">
-        <v>40340</v>
-      </c>
-      <c r="K12" s="19">
-        <v>16858</v>
-      </c>
-      <c r="L12" s="18">
-        <v>17315</v>
-      </c>
-      <c r="M12" s="20">
-        <v>44998</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="27" t="s">
-        <v>48</v>
-      </c>
+      <c r="O12" s="27"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -1541,10 +1503,9 @@
     <hyperlink ref="O9" r:id="rId8"/>
     <hyperlink ref="O10" r:id="rId9"/>
     <hyperlink ref="O11" r:id="rId10"/>
-    <hyperlink ref="O12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Planilhas/sesi_albano.xlsx
+++ b/Planilhas/sesi_albano.xlsx
@@ -18,34 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="J12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>@gefin.faturamento.sesi@sfiec.org.br
-OC atualizada.
-_Atribuído a GEFIN Faturamento SESI_
-	-Sara da Costa Pereira</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>CNPJ</t>
   </si>
@@ -186,6 +160,90 @@
   </si>
   <si>
     <t>rssales@sfiec.org.br</t>
+  </si>
+  <si>
+    <t>INDUSTRIA E COMERCIO DE RACOES DOURADO LTDA</t>
+  </si>
+  <si>
+    <t>41578535000121</t>
+  </si>
+  <si>
+    <t>020013</t>
+  </si>
+  <si>
+    <t>JM LIMAS SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>30049950000252</t>
+  </si>
+  <si>
+    <t>020014</t>
+  </si>
+  <si>
+    <t>L F S COMERCIO E IMPORTACAO DE ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>15099833000633</t>
+  </si>
+  <si>
+    <t>020015</t>
+  </si>
+  <si>
+    <t>LUNELLI TEXTIL NORDESTE LTDA</t>
+  </si>
+  <si>
+    <t>10220089000155</t>
+  </si>
+  <si>
+    <t>020016</t>
+  </si>
+  <si>
+    <t>LUPO NORDESTE LTDA</t>
+  </si>
+  <si>
+    <t>01933349000572</t>
+  </si>
+  <si>
+    <t>020017</t>
+  </si>
+  <si>
+    <t>4500247540</t>
+  </si>
+  <si>
+    <t>M DIAS BRANCO S.A. INDUSTRIA E COMERCIO DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>07206816004706</t>
+  </si>
+  <si>
+    <t>020018</t>
+  </si>
+  <si>
+    <t>MANUTENCAO DA HORA LTDA</t>
+  </si>
+  <si>
+    <t>04130708000118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">020019	</t>
+  </si>
+  <si>
+    <t>MAQUINAS AGRICOLAS JACTO S A</t>
+  </si>
+  <si>
+    <t>55064562002134</t>
+  </si>
+  <si>
+    <t>020020</t>
+  </si>
+  <si>
+    <t>MC MALHARIA LTDA</t>
+  </si>
+  <si>
+    <t>48640179000178</t>
+  </si>
+  <si>
+    <t>020021</t>
   </si>
 </sst>
 </file>
@@ -196,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="000000000"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +287,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
@@ -263,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -310,25 +362,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,13 +439,10 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,7 +450,87 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -762,11 +878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,7 +942,7 @@
       <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>43</v>
       </c>
       <c r="P1" s="1"/>
@@ -866,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="16">
-        <f t="shared" ref="H2:H12" si="0">D2-(D2*G2)</f>
+        <f t="shared" ref="H2:H20" si="0">D2-(D2*G2)</f>
         <v>76</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -883,7 +999,7 @@
         <v>44998</v>
       </c>
       <c r="N2" s="18"/>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="P2" s="21"/>
@@ -940,7 +1056,7 @@
         <v>44998</v>
       </c>
       <c r="N3" s="18"/>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="26" t="s">
         <v>45</v>
       </c>
       <c r="P3" s="21"/>
@@ -997,7 +1113,7 @@
         <v>44998</v>
       </c>
       <c r="N4" s="18"/>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P4" s="21"/>
@@ -1054,7 +1170,7 @@
         <v>44998</v>
       </c>
       <c r="N5" s="18"/>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>44</v>
       </c>
       <c r="P5" s="21"/>
@@ -1111,7 +1227,7 @@
         <v>44998</v>
       </c>
       <c r="N6" s="18"/>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="26" t="s">
         <v>45</v>
       </c>
       <c r="P6" s="21"/>
@@ -1168,7 +1284,7 @@
         <v>44998</v>
       </c>
       <c r="N7" s="18"/>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P7" s="21"/>
@@ -1225,7 +1341,7 @@
         <v>44998</v>
       </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="26" t="s">
         <v>44</v>
       </c>
       <c r="P8" s="21"/>
@@ -1282,7 +1398,7 @@
         <v>44998</v>
       </c>
       <c r="N9" s="18"/>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>45</v>
       </c>
       <c r="P9" s="21"/>
@@ -1339,7 +1455,7 @@
         <v>44998</v>
       </c>
       <c r="N10" s="20"/>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>46</v>
       </c>
       <c r="P10" s="21"/>
@@ -1396,7 +1512,7 @@
         <v>44998</v>
       </c>
       <c r="N11" s="20"/>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="21"/>
@@ -1414,21 +1530,48 @@
       <c r="AB11" s="21"/>
     </row>
     <row r="12" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="27"/>
+      <c r="A12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12">
+        <v>496</v>
+      </c>
+      <c r="E12" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F12" s="14">
+        <v>33351</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="0"/>
+        <v>396.8</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19">
+        <v>16839</v>
+      </c>
+      <c r="L12" s="18">
+        <v>17296</v>
+      </c>
+      <c r="M12" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -1443,53 +1586,618 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="O13" s="27"/>
+    <row r="13" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12">
+        <v>582</v>
+      </c>
+      <c r="E13" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F13" s="14">
+        <v>33352</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>465.6</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19">
+        <v>16840</v>
+      </c>
+      <c r="L13" s="18">
+        <v>17297</v>
+      </c>
+      <c r="M13" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12">
+        <v>335</v>
+      </c>
+      <c r="E14" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F14" s="14">
+        <v>33354</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="0"/>
+        <v>318.25</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19">
+        <v>16841</v>
+      </c>
+      <c r="L14" s="18">
+        <v>17298</v>
+      </c>
+      <c r="M14" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12">
+        <v>448</v>
+      </c>
+      <c r="E15" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F15" s="14">
+        <v>33355</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>358.4</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19">
+        <v>16842</v>
+      </c>
+      <c r="L15" s="18">
+        <v>17299</v>
+      </c>
+      <c r="M15" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+    </row>
+    <row r="16" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1962</v>
+      </c>
+      <c r="E16" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F16" s="14">
+        <v>33356</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="0"/>
+        <v>1863.9</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="19">
+        <v>16843</v>
+      </c>
+      <c r="L16" s="18">
+        <v>17300</v>
+      </c>
+      <c r="M16" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+    </row>
+    <row r="17" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4554</v>
+      </c>
+      <c r="E17" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F17" s="14">
+        <v>33358</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>3643.2</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19">
+        <v>16844</v>
+      </c>
+      <c r="L17" s="18">
+        <v>17301</v>
+      </c>
+      <c r="M17" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+    </row>
+    <row r="18" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="12">
+        <v>216</v>
+      </c>
+      <c r="E18" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F18" s="14">
+        <v>33359</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19">
+        <v>16845</v>
+      </c>
+      <c r="L18" s="18">
+        <v>17302</v>
+      </c>
+      <c r="M18" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="12">
+        <v>674</v>
+      </c>
+      <c r="E19" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F19" s="14">
+        <v>33360</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>640.29999999999995</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19">
+        <v>16846</v>
+      </c>
+      <c r="L19" s="18">
+        <v>17303</v>
+      </c>
+      <c r="M19" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="12">
+        <v>545</v>
+      </c>
+      <c r="E20" s="13">
+        <v>44988</v>
+      </c>
+      <c r="F20" s="14">
+        <v>33361</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19">
+        <v>16847</v>
+      </c>
+      <c r="L20" s="18">
+        <v>17304</v>
+      </c>
+      <c r="M20" s="20">
+        <v>44998</v>
+      </c>
+      <c r="N20" s="18"/>
+      <c r="O20" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+    </row>
+    <row r="21" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+    </row>
+    <row r="22" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D12">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="expression" dxfId="18" priority="11">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F12">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="E2:F11">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G12">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="G2:G11">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H12">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="I2:I11">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C12">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B12">
-    <cfRule type="expression" dxfId="2" priority="7">
+  <conditionalFormatting sqref="B2:B11">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="expression" dxfId="1" priority="8">
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="expression" dxfId="0" priority="9">
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>A2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>A16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D22">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F22">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G22">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H22">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I22">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C22">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B22">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E22">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>A12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F22">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>A12</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1503,9 +2211,17 @@
     <hyperlink ref="O9" r:id="rId8"/>
     <hyperlink ref="O10" r:id="rId9"/>
     <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>